--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>298758</v>
+        <v>298759</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>298792</v>
       </c>
     </row>
   </sheetData>
